--- a/results/mp/logistic/corona/confidence/126/0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,12 +52,12 @@
     <t>fraud</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -70,9 +70,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>the</t>
   </si>
   <si>
@@ -82,127 +79,115 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>free</t>
+    <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>good</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>giving</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>you</t>
-  </si>
-  <si>
     <t>and</t>
   </si>
   <si>
     <t>.</t>
-  </si>
-  <si>
-    <t>to</t>
   </si>
 </sst>
 </file>
@@ -560,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,10 +553,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -650,16 +635,16 @@
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -671,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -679,13 +664,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7431506849315068</v>
+        <v>0.7568493150684932</v>
       </c>
       <c r="C4">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D4">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -697,19 +682,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -721,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -729,13 +714,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5588235294117647</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,19 +732,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5">
-        <v>0.9166666666666666</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L5">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -771,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -779,13 +764,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5555555555555556</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -797,19 +782,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -821,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -829,13 +814,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4074074074074074</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C7">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -847,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -871,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,13 +864,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3725490196078431</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -897,19 +882,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,13 +914,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3643410852713178</v>
+        <v>0.3546511627906977</v>
       </c>
       <c r="C9">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D9">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -947,19 +932,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>313</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>313</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -971,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -979,13 +964,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -997,19 +982,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>0.8328981723237598</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L10">
-        <v>319</v>
+        <v>67</v>
       </c>
       <c r="M10">
-        <v>319</v>
+        <v>67</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1021,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,13 +1014,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2214765100671141</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="C11">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1047,31 +1032,31 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K11">
-        <v>0.8181818181818182</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L11">
+        <v>115</v>
+      </c>
+      <c r="M11">
+        <v>115</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>27</v>
-      </c>
-      <c r="M11">
-        <v>27</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,13 +1064,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1416666666666667</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C12">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1097,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K12">
-        <v>0.8103448275862069</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1121,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1129,78 +1114,54 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.007729468599033816</v>
+        <v>0.004078461837249951</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E13">
-        <v>0.08</v>
+        <v>0.43</v>
       </c>
       <c r="F13">
-        <v>0.92</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>3081</v>
+        <v>5128</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13">
+        <v>0.8018867924528302</v>
+      </c>
+      <c r="L13">
+        <v>85</v>
+      </c>
+      <c r="M13">
+        <v>85</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="K13">
-        <v>0.796875</v>
-      </c>
-      <c r="L13">
-        <v>102</v>
-      </c>
-      <c r="M13">
-        <v>102</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.004667444574095682</v>
-      </c>
-      <c r="C14">
-        <v>24</v>
-      </c>
-      <c r="D14">
-        <v>47</v>
-      </c>
-      <c r="E14">
-        <v>0.49</v>
-      </c>
-      <c r="F14">
-        <v>0.51</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>5118</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="K14">
         <v>0.7948717948717948</v>
@@ -1226,16 +1187,16 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K15">
-        <v>0.7830188679245284</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L15">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1247,21 +1208,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K16">
-        <v>0.78125</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L16">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1273,47 +1234,47 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17">
+        <v>0.78125</v>
+      </c>
+      <c r="L17">
+        <v>125</v>
+      </c>
+      <c r="M17">
+        <v>125</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>35</v>
-      </c>
-      <c r="K17">
-        <v>0.7682926829268293</v>
-      </c>
-      <c r="L17">
-        <v>63</v>
-      </c>
-      <c r="M17">
-        <v>63</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>19</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K18">
-        <v>0.7446808510638298</v>
+        <v>0.7421875</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1325,21 +1286,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K19">
-        <v>0.7394366197183099</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L19">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1351,21 +1312,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K20">
-        <v>0.7037037037037037</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1377,21 +1338,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K21">
-        <v>0.6875</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1403,21 +1364,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K22">
-        <v>0.6785714285714286</v>
+        <v>0.7</v>
       </c>
       <c r="L22">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M22">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1429,21 +1390,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K23">
-        <v>0.6511627906976745</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L23">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1455,21 +1416,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>0.6507936507936508</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L24">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1481,21 +1442,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>0.6294117647058823</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L25">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="M25">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1507,21 +1468,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>126</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K26">
-        <v>0.625</v>
+        <v>0.65</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1533,12 +1494,12 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27">
         <v>0.6060606060606061</v>
@@ -1564,16 +1525,16 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>0.6</v>
+        <v>0.575</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1585,21 +1546,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>0.5851063829787234</v>
+        <v>0.5694915254237288</v>
       </c>
       <c r="L29">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="M29">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1611,21 +1572,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>39</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>0.5774058577405857</v>
+        <v>0.5523012552301255</v>
       </c>
       <c r="L30">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M30">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1637,21 +1598,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K31">
-        <v>0.5692307692307692</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="L31">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="M31">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1663,21 +1624,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>0.5600000000000001</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L32">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M32">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1689,21 +1650,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>0.5457627118644067</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L33">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="M33">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1715,21 +1676,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>134</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K34">
-        <v>0.5142857142857142</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L34">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1741,21 +1702,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K35">
-        <v>0.4831460674157304</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L35">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M35">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1767,21 +1728,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K36">
-        <v>0.4523809523809524</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1793,21 +1754,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K37">
-        <v>0.392156862745098</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1819,21 +1780,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K38">
-        <v>0.3125</v>
+        <v>0.3013698630136986</v>
       </c>
       <c r="L38">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1845,189 +1806,59 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K39">
-        <v>0.2948717948717949</v>
+        <v>0.007129455909943715</v>
       </c>
       <c r="L39">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>55</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K40">
-        <v>0.2876712328767123</v>
+        <v>0.005018065034122842</v>
       </c>
       <c r="L40">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M40">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.64</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17">
-      <c r="J41" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K41">
-        <v>0.02418682235195997</v>
-      </c>
-      <c r="L41">
-        <v>29</v>
-      </c>
-      <c r="M41">
-        <v>30</v>
-      </c>
-      <c r="N41">
-        <v>0.97</v>
-      </c>
-      <c r="O41">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="42" spans="10:17">
-      <c r="J42" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K42">
-        <v>0.0112739571589628</v>
-      </c>
-      <c r="L42">
-        <v>30</v>
-      </c>
-      <c r="M42">
-        <v>42</v>
-      </c>
-      <c r="N42">
-        <v>0.71</v>
-      </c>
-      <c r="O42">
-        <v>0.29</v>
-      </c>
-      <c r="P42" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q42">
-        <v>2631</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
-      <c r="J43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K43">
-        <v>0.005221932114882507</v>
-      </c>
-      <c r="L43">
-        <v>26</v>
-      </c>
-      <c r="M43">
-        <v>43</v>
-      </c>
-      <c r="N43">
-        <v>0.6</v>
-      </c>
-      <c r="O43">
-        <v>0.4</v>
-      </c>
-      <c r="P43" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q43">
-        <v>4953</v>
-      </c>
-    </row>
-    <row r="44" spans="10:17">
-      <c r="J44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K44">
-        <v>0.004872389791183295</v>
-      </c>
-      <c r="L44">
-        <v>21</v>
-      </c>
-      <c r="M44">
-        <v>39</v>
-      </c>
-      <c r="N44">
-        <v>0.54</v>
-      </c>
-      <c r="O44">
-        <v>0.46</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>4289</v>
-      </c>
-    </row>
-    <row r="45" spans="10:17">
-      <c r="J45" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K45">
-        <v>0.004473837774751994</v>
-      </c>
-      <c r="L45">
-        <v>23</v>
-      </c>
-      <c r="M45">
-        <v>47</v>
-      </c>
-      <c r="N45">
-        <v>0.49</v>
-      </c>
-      <c r="O45">
-        <v>0.51</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>5118</v>
+        <v>4957</v>
       </c>
     </row>
   </sheetData>
